--- a/data-raw/GHAPSB.xlsx
+++ b/data-raw/GHAPSB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/github/IEATools/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/IEATools/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEB806E-F0C8-794D-9BCE-C3D98D985499}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3F8063-D549-0243-B909-A1F9FD39312B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="40180" windowHeight="28340" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,9 +66,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -79,15 +77,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
   <si>
     <t>Country</t>
   </si>
   <si>
     <t>Industry</t>
-  </si>
-  <si>
-    <t>GH</t>
   </si>
   <si>
     <t>Agriculture/forestry</t>
@@ -161,12 +156,39 @@
   <si>
     <t>Industry not elsewhere specified</t>
   </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>PCM</t>
+  </si>
+  <si>
+    <t>Energy.type</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Last.stage</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>ktoe</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5529,26 +5551,26 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -5562,18 +5584,21 @@
   <dimension ref="A3:AR29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A23" sqref="A23"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AN24" sqref="AN24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1971</v>
       </c>
@@ -5704,9 +5729,9 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>2087</v>
@@ -5838,9 +5863,9 @@
         <v>3553</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>478</v>
@@ -5972,9 +5997,9 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1464</v>
@@ -6106,9 +6131,9 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6240,9 +6265,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>146</v>
@@ -6374,9 +6399,9 @@
         <v>402</v>
       </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6508,9 +6533,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <f>B5-SUM(B6:B10)</f>
@@ -6685,12 +6710,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:44">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:44">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>1971</v>
       </c>
@@ -6821,9 +6846,9 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="19" spans="1:44">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19">
         <f>SUM(B20:B24)</f>
@@ -6998,9 +7023,9 @@
         <v>3554</v>
       </c>
     </row>
-    <row r="20" spans="1:44">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>478</v>
@@ -7141,9 +7166,9 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="21" spans="1:44">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21">
         <v>1464</v>
@@ -7284,9 +7309,9 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="22" spans="1:44">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -7418,9 +7443,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:44">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>146</v>
@@ -7561,9 +7586,9 @@
         <v>402</v>
       </c>
     </row>
-    <row r="24" spans="1:44">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -7695,9 +7720,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:44">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26">
         <f>B19-SUM(B20:B24)</f>
@@ -7872,9 +7897,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:44">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29">
         <f>B19-B5</f>
@@ -8058,393 +8083,479 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1">
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1">
         <f>PSB!V18</f>
         <v>1991</v>
       </c>
-      <c r="G1">
+      <c r="K1">
         <f>PSB!W18</f>
         <v>1992</v>
       </c>
-      <c r="H1">
+      <c r="L1">
         <f>PSB!X18</f>
         <v>1993</v>
       </c>
-      <c r="I1">
+      <c r="M1">
         <f>PSB!Y18</f>
         <v>1994</v>
       </c>
-      <c r="J1">
+      <c r="N1">
         <f>PSB!Z18</f>
         <v>1995</v>
       </c>
-      <c r="K1">
+      <c r="O1">
         <f>PSB!AA18</f>
         <v>1996</v>
       </c>
-      <c r="L1">
+      <c r="P1">
         <f>PSB!AB18</f>
         <v>1997</v>
       </c>
-      <c r="M1">
+      <c r="Q1">
         <f>PSB!AC18</f>
         <v>1998</v>
       </c>
-      <c r="N1">
+      <c r="R1">
         <f>PSB!AD18</f>
         <v>1999</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2">
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2">
         <f>PSB!V19</f>
         <v>4025</v>
       </c>
-      <c r="G2">
+      <c r="K2">
         <f>PSB!W19</f>
         <v>4110</v>
       </c>
-      <c r="H2">
+      <c r="L2">
         <f>PSB!X19</f>
         <v>4165</v>
       </c>
-      <c r="I2">
+      <c r="M2">
         <f>PSB!Y19</f>
         <v>4190</v>
       </c>
-      <c r="J2">
+      <c r="N2">
         <f>PSB!Z19</f>
         <v>4185</v>
       </c>
-      <c r="K2">
+      <c r="O2">
         <f>PSB!AA19</f>
         <v>4145</v>
       </c>
-      <c r="L2">
+      <c r="P2">
         <f>PSB!AB19</f>
         <v>4080</v>
       </c>
-      <c r="M2">
+      <c r="Q2">
         <f>PSB!AC19</f>
         <v>3995</v>
       </c>
-      <c r="N2">
+      <c r="R2">
         <f>PSB!AD19</f>
         <v>3890</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="str">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="str">
         <f>PSB!A20</f>
         <v>Charcoal production plants</v>
       </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3">
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3">
         <f>-PSB!V20</f>
         <v>-1189</v>
       </c>
-      <c r="G3">
+      <c r="K3">
         <f>-PSB!W20</f>
         <v>-1209</v>
       </c>
-      <c r="H3">
+      <c r="L3">
         <f>-PSB!X20</f>
         <v>-1219</v>
       </c>
-      <c r="I3">
+      <c r="M3">
         <f>-PSB!Y20</f>
         <v>-1219</v>
       </c>
-      <c r="J3">
+      <c r="N3">
         <f>-PSB!Z20</f>
         <v>-1209</v>
       </c>
-      <c r="K3">
+      <c r="O3">
         <f>-PSB!AA20</f>
         <v>-1179</v>
       </c>
-      <c r="L3">
+      <c r="P3">
         <f>-PSB!AB20</f>
         <v>-1144</v>
       </c>
-      <c r="M3">
+      <c r="Q3">
         <f>-PSB!AC20</f>
         <v>-1109</v>
       </c>
-      <c r="N3">
+      <c r="R3">
         <f>-PSB!AD20</f>
         <v>-1074</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="str">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="str">
         <f>PSB!A21</f>
         <v>Residential</v>
       </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4">
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4">
         <f>PSB!V21</f>
         <v>2514</v>
       </c>
-      <c r="G4">
+      <c r="K4">
         <f>PSB!W21</f>
         <v>2544</v>
       </c>
-      <c r="H4">
+      <c r="L4">
         <f>PSB!X21</f>
         <v>2554</v>
       </c>
-      <c r="I4">
+      <c r="M4">
         <f>PSB!Y21</f>
         <v>2544</v>
       </c>
-      <c r="J4">
+      <c r="N4">
         <f>PSB!Z21</f>
         <v>2514</v>
       </c>
-      <c r="K4">
+      <c r="O4">
         <f>PSB!AA21</f>
         <v>2464</v>
       </c>
-      <c r="L4">
+      <c r="P4">
         <f>PSB!AB21</f>
         <v>2394</v>
       </c>
-      <c r="M4">
+      <c r="Q4">
         <f>PSB!AC21</f>
         <v>2304</v>
       </c>
-      <c r="N4">
+      <c r="R4">
         <f>PSB!AD21</f>
         <v>2194</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="str">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="str">
         <f>PSB!A22</f>
         <v>Agriculture/forestry</v>
       </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5">
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5">
         <f>PSB!V22</f>
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="K5">
         <f>PSB!W22</f>
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="L5">
         <f>PSB!X22</f>
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="M5">
         <f>PSB!Y22</f>
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="N5">
         <f>PSB!Z22</f>
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="O5">
         <f>PSB!AA22</f>
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="P5">
         <f>PSB!AB22</f>
         <v>0</v>
       </c>
-      <c r="M5">
+      <c r="Q5">
         <f>PSB!AC22</f>
         <v>0</v>
       </c>
-      <c r="N5">
+      <c r="R5">
         <f>PSB!AD22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="str">
+      <c r="G6" t="str">
         <f>PSB!A23</f>
         <v>Industry not elsewhere specified</v>
       </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6">
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6">
         <f>PSB!V23</f>
         <v>322</v>
       </c>
-      <c r="G6">
+      <c r="K6">
         <f>PSB!W23</f>
         <v>357</v>
       </c>
-      <c r="H6">
+      <c r="L6">
         <f>PSB!X23</f>
         <v>392</v>
       </c>
-      <c r="I6">
+      <c r="M6">
         <f>PSB!Y23</f>
         <v>427</v>
       </c>
-      <c r="J6">
+      <c r="N6">
         <f>PSB!Z23</f>
         <v>462</v>
       </c>
-      <c r="K6">
+      <c r="O6">
         <f>PSB!AA23</f>
         <v>502</v>
       </c>
-      <c r="L6">
+      <c r="P6">
         <f>PSB!AB23</f>
         <v>542</v>
       </c>
-      <c r="M6">
+      <c r="Q6">
         <f>PSB!AC23</f>
         <v>582</v>
       </c>
-      <c r="N6">
+      <c r="R6">
         <f>PSB!AD23</f>
         <v>622</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="str">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="str">
         <f>PSB!A24</f>
         <v>Commercial and public services</v>
       </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7">
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7">
         <f>PSB!V24</f>
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="K7">
         <f>PSB!W24</f>
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="L7">
         <f>PSB!X24</f>
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="M7">
         <f>PSB!Y24</f>
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="N7">
         <f>PSB!Z24</f>
         <v>0</v>
       </c>
-      <c r="K7">
+      <c r="O7">
         <f>PSB!AA24</f>
         <v>0</v>
       </c>
-      <c r="L7">
+      <c r="P7">
         <f>PSB!AB24</f>
         <v>0</v>
       </c>
-      <c r="M7">
+      <c r="Q7">
         <f>PSB!AC24</f>
         <v>0</v>
       </c>
-      <c r="N7">
+      <c r="R7">
         <f>PSB!AD24</f>
         <v>0</v>
       </c>
